--- a/raw_data/20200818_saline/20200818_Sensor1_Test_49.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_49.xlsx
@@ -1,538 +1,954 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB1EA22-6B2F-499A-83E1-9D91052D751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>43387.591173</v>
+        <v>43387.591173000001</v>
       </c>
       <c r="B2" s="1">
         <v>12.052109</v>
       </c>
       <c r="C2" s="1">
-        <v>906.486000</v>
+        <v>906.48599999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-179.520000</v>
+        <v>-179.52</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>43398.017116</v>
+        <v>43398.017116000003</v>
       </c>
       <c r="G2" s="1">
         <v>12.055005</v>
       </c>
       <c r="H2" s="1">
-        <v>921.428000</v>
+        <v>921.428</v>
       </c>
       <c r="I2" s="1">
-        <v>-153.376000</v>
+        <v>-153.376</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>43408.434554</v>
+        <v>43408.434553999999</v>
       </c>
       <c r="L2" s="1">
         <v>12.057898</v>
       </c>
       <c r="M2" s="1">
-        <v>942.239000</v>
+        <v>942.23900000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-112.098000</v>
+        <v>-112.098</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>43418.942331</v>
+        <v>43418.942330999998</v>
       </c>
       <c r="Q2" s="1">
         <v>12.060817</v>
       </c>
       <c r="R2" s="1">
-        <v>949.227000</v>
+        <v>949.22699999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-98.419000</v>
+        <v>-98.418999999999997</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>43429.834445</v>
@@ -541,255 +957,255 @@
         <v>12.063843</v>
       </c>
       <c r="W2" s="1">
-        <v>956.407000</v>
+        <v>956.40700000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-85.732600</v>
+        <v>-85.732600000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>43440.248447</v>
+        <v>43440.248446999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>12.066736</v>
+        <v>12.066736000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.456000</v>
+        <v>964.45600000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>-75.817600</v>
+        <v>-75.817599999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>43450.804801</v>
+        <v>43450.804800999998</v>
       </c>
       <c r="AF2" s="1">
         <v>12.069668</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.766000</v>
+        <v>969.76599999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.259000</v>
+        <v>-74.259</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>43461.219302</v>
+        <v>43461.219301999998</v>
       </c>
       <c r="AK2" s="1">
         <v>12.072561</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.490000</v>
+        <v>977.49</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.533100</v>
+        <v>-79.533100000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>43472.109959</v>
+        <v>43472.109959000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.075586</v>
+        <v>12.075585999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.841000</v>
+        <v>985.84100000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.371000</v>
+        <v>-91.370999999999995</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>43482.741737</v>
+        <v>43482.741736999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>12.078539</v>
+        <v>12.078538999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.794000</v>
+        <v>995.79399999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.201000</v>
+        <v>-109.20099999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>43493.616985</v>
+        <v>43493.616985000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>12.081560</v>
+        <v>12.08156</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.003000</v>
+        <v>-125.003</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>43504.578075</v>
+        <v>43504.578074999998</v>
       </c>
       <c r="BE2" s="1">
         <v>12.084605</v>
       </c>
       <c r="BF2" s="1">
-        <v>1042.810000</v>
+        <v>1042.81</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.532000</v>
+        <v>-197.53200000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>43515.198908</v>
+        <v>43515.198907999998</v>
       </c>
       <c r="BJ2" s="1">
         <v>12.087555</v>
       </c>
       <c r="BK2" s="1">
-        <v>1109.490000</v>
+        <v>1109.49</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.372000</v>
+        <v>-315.37200000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>43526.388654</v>
+        <v>43526.388654000002</v>
       </c>
       <c r="BO2" s="1">
         <v>12.090664</v>
       </c>
       <c r="BP2" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-501.650000</v>
+        <v>-501.65</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>43538.647277</v>
+        <v>43538.647276999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>12.094069</v>
+        <v>12.094068999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1340.060000</v>
+        <v>1340.06</v>
       </c>
       <c r="BV2" s="1">
-        <v>-706.821000</v>
+        <v>-706.82100000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>43549.381232</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.097050</v>
+        <v>12.097049999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1477.310000</v>
+        <v>1477.31</v>
       </c>
       <c r="CA2" s="1">
-        <v>-925.056000</v>
+        <v>-925.05600000000004</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>43560.009009</v>
+        <v>43560.009009000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>12.100003</v>
+        <v>12.100002999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1838.300000</v>
+        <v>1838.3</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1445.450000</v>
+        <v>-1445.45</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>43387.973588</v>
+        <v>43387.973588000001</v>
       </c>
       <c r="B3" s="1">
         <v>12.052215</v>
       </c>
       <c r="C3" s="1">
-        <v>906.286000</v>
+        <v>906.28599999999994</v>
       </c>
       <c r="D3" s="1">
-        <v>-179.489000</v>
+        <v>-179.489</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>43398.365077</v>
+        <v>43398.365077000002</v>
       </c>
       <c r="G3" s="1">
-        <v>12.055101</v>
+        <v>12.055101000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>921.210000</v>
+        <v>921.21</v>
       </c>
       <c r="I3" s="1">
-        <v>-153.155000</v>
+        <v>-153.155</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>43409.160732</v>
+        <v>43409.160731999997</v>
       </c>
       <c r="L3" s="1">
-        <v>12.058100</v>
+        <v>12.0581</v>
       </c>
       <c r="M3" s="1">
-        <v>942.183000</v>
+        <v>942.18299999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-112.113000</v>
+        <v>-112.113</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>43419.673403</v>
+        <v>43419.673403000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>12.061020</v>
+        <v>12.061019999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>949.248000</v>
+        <v>949.24800000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-98.388500</v>
+        <v>-98.388499999999993</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>43430.171231</v>
@@ -798,178 +1214,178 @@
         <v>12.063936</v>
       </c>
       <c r="W3" s="1">
-        <v>956.505000</v>
+        <v>956.505</v>
       </c>
       <c r="X3" s="1">
-        <v>-85.651800</v>
+        <v>-85.651799999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>43440.616480</v>
+        <v>43440.616479999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>12.066838</v>
+        <v>12.066838000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.596000</v>
+        <v>964.596</v>
       </c>
       <c r="AC3" s="1">
-        <v>-75.815900</v>
+        <v>-75.815899999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>43451.168897</v>
+        <v>43451.168897000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.069769</v>
+        <v>12.069769000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.754000</v>
+        <v>969.75400000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.272100</v>
+        <v>-74.272099999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>43461.910262</v>
+        <v>43461.910261999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>12.072753</v>
+        <v>12.072753000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.476000</v>
+        <v>977.476</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.522600</v>
+        <v>-79.522599999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>43472.220565</v>
+        <v>43472.220565000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>12.075617</v>
+        <v>12.075616999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.810000</v>
+        <v>985.81</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.359600</v>
+        <v>-91.3596</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>43483.200504</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.078667</v>
+        <v>12.078666999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.801000</v>
+        <v>995.80100000000004</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.204000</v>
+        <v>-109.20399999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>43493.977576</v>
+        <v>43493.977575999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>12.081660</v>
+        <v>12.081659999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.028000</v>
+        <v>-125.02800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>43504.941147</v>
+        <v>43504.941146999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>12.084706</v>
+        <v>12.084706000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1042.830000</v>
+        <v>1042.83</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.555000</v>
+        <v>-197.55500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>43515.601660</v>
+        <v>43515.60166</v>
       </c>
       <c r="BJ3" s="1">
         <v>12.087667</v>
       </c>
       <c r="BK3" s="1">
-        <v>1109.500000</v>
+        <v>1109.5</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.453000</v>
+        <v>-315.45299999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>43526.816205</v>
+        <v>43526.816205000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>12.090782</v>
+        <v>12.090782000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-501.651000</v>
+        <v>-501.65100000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>43538.789629</v>
+        <v>43538.789628999999</v>
       </c>
       <c r="BT3" s="1">
         <v>12.094108</v>
       </c>
       <c r="BU3" s="1">
-        <v>1340.120000</v>
+        <v>1340.12</v>
       </c>
       <c r="BV3" s="1">
-        <v>-706.846000</v>
+        <v>-706.846</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>43549.558799</v>
+        <v>43549.558798999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>12.097100</v>
+        <v>12.097099999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1477.150000</v>
+        <v>1477.15</v>
       </c>
       <c r="CA3" s="1">
-        <v>-925.092000</v>
+        <v>-925.09199999999998</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>43560.577888</v>
@@ -978,60 +1394,60 @@
         <v>12.100161</v>
       </c>
       <c r="CE3" s="1">
-        <v>1838.210000</v>
+        <v>1838.21</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1445.600000</v>
+        <v>-1445.6</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>43388.315924</v>
+        <v>43388.315924000002</v>
       </c>
       <c r="B4" s="1">
-        <v>12.052310</v>
+        <v>12.05231</v>
       </c>
       <c r="C4" s="1">
-        <v>906.225000</v>
+        <v>906.22500000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-179.607000</v>
+        <v>-179.607</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>43399.051769</v>
+        <v>43399.051768999998</v>
       </c>
       <c r="G4" s="1">
         <v>12.055292</v>
       </c>
       <c r="H4" s="1">
-        <v>920.852000</v>
+        <v>920.85199999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-152.890000</v>
+        <v>-152.88999999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>43409.507400</v>
+        <v>43409.507400000002</v>
       </c>
       <c r="L4" s="1">
-        <v>12.058196</v>
+        <v>12.058196000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>942.382000</v>
+        <v>942.38199999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-112.174000</v>
+        <v>-112.17400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>43420.023084</v>
@@ -1040,73 +1456,73 @@
         <v>12.061118</v>
       </c>
       <c r="R4" s="1">
-        <v>949.275000</v>
+        <v>949.27499999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-98.416900</v>
+        <v>-98.416899999999998</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>43430.513999</v>
+        <v>43430.513999000003</v>
       </c>
       <c r="V4" s="1">
-        <v>12.064032</v>
+        <v>12.064031999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>956.397000</v>
+        <v>956.39700000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-85.728100</v>
+        <v>-85.728099999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>43441.273678</v>
+        <v>43441.273677999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>12.067020</v>
+        <v>12.067019999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.533000</v>
+        <v>964.53300000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-75.805300</v>
+        <v>-75.805300000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>43451.820112</v>
+        <v>43451.820112000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>12.069950</v>
+        <v>12.06995</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.776000</v>
+        <v>969.77599999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.282900</v>
+        <v>-74.282899999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>43462.294658</v>
+        <v>43462.294657999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>12.072860</v>
+        <v>12.07286</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.488000</v>
+        <v>977.48800000000006</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.495100</v>
+        <v>-79.495099999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>43472.570775</v>
@@ -1115,13 +1531,13 @@
         <v>12.075714</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.831000</v>
+        <v>985.83100000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.366900</v>
+        <v>-91.366900000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>43483.581928</v>
@@ -1130,165 +1546,165 @@
         <v>12.078773</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.780000</v>
+        <v>995.78</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.202000</v>
+        <v>-109.202</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>43494.335194</v>
+        <v>43494.335193999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>12.081760</v>
+        <v>12.081759999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.026000</v>
+        <v>-125.026</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>43505.362747</v>
+        <v>43505.362746999999</v>
       </c>
       <c r="BE4" s="1">
         <v>12.084823</v>
       </c>
       <c r="BF4" s="1">
-        <v>1042.860000</v>
+        <v>1042.8599999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.527000</v>
+        <v>-197.52699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>43516.023757</v>
+        <v>43516.023757000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.087784</v>
+        <v>12.087783999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1109.470000</v>
+        <v>1109.47</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.428000</v>
+        <v>-315.428</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>43527.207054</v>
+        <v>43527.207053999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>12.090891</v>
+        <v>12.090890999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-501.652000</v>
+        <v>-501.65199999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>43539.231565</v>
+        <v>43539.231565000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>12.094231</v>
+        <v>12.094231000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1340.240000</v>
+        <v>1340.24</v>
       </c>
       <c r="BV4" s="1">
-        <v>-706.849000</v>
+        <v>-706.84900000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>43549.981359</v>
+        <v>43549.981358999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.097217</v>
+        <v>12.097217000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1477.070000</v>
+        <v>1477.07</v>
       </c>
       <c r="CA4" s="1">
-        <v>-925.138000</v>
+        <v>-925.13800000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>43561.097696</v>
+        <v>43561.097695999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>12.100305</v>
+        <v>12.100305000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1838.470000</v>
+        <v>1838.47</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1444.280000</v>
+        <v>-1444.28</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>43388.996843</v>
+        <v>43388.996843000001</v>
       </c>
       <c r="B5" s="1">
-        <v>12.052499</v>
+        <v>12.052498999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>906.333000</v>
+        <v>906.33299999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-179.541000</v>
+        <v>-179.541</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>43399.395958</v>
+        <v>43399.395958000001</v>
       </c>
       <c r="G5" s="1">
-        <v>12.055388</v>
+        <v>12.055388000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>921.325000</v>
+        <v>921.32500000000005</v>
       </c>
       <c r="I5" s="1">
-        <v>-153.556000</v>
+        <v>-153.55600000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>43409.853113</v>
+        <v>43409.853112999997</v>
       </c>
       <c r="L5" s="1">
-        <v>12.058293</v>
+        <v>12.058293000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>942.425000</v>
+        <v>942.42499999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-112.059000</v>
+        <v>-112.059</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>43420.367306</v>
@@ -1297,103 +1713,103 @@
         <v>12.061213</v>
       </c>
       <c r="R5" s="1">
-        <v>949.316000</v>
+        <v>949.31600000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-98.424100</v>
+        <v>-98.424099999999996</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>43431.179628</v>
+        <v>43431.179627999998</v>
       </c>
       <c r="V5" s="1">
-        <v>12.064217</v>
+        <v>12.064216999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>956.392000</v>
+        <v>956.39200000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-85.583800</v>
+        <v>-85.583799999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>43441.659567</v>
+        <v>43441.659567000002</v>
       </c>
       <c r="AA5" s="1">
         <v>12.067128</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.569000</v>
+        <v>964.56899999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-75.794800</v>
+        <v>-75.794799999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>43452.199087</v>
+        <v>43452.199087000001</v>
       </c>
       <c r="AF5" s="1">
         <v>12.070055</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.786000</v>
+        <v>969.78599999999994</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.256900</v>
+        <v>-74.256900000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>43462.642532</v>
+        <v>43462.642531999998</v>
       </c>
       <c r="AK5" s="1">
         <v>12.072956</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.474000</v>
+        <v>977.47400000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.514100</v>
+        <v>-79.514099999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>43472.930377</v>
+        <v>43472.930376999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.075814</v>
+        <v>12.075813999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.817000</v>
+        <v>985.81700000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.354800</v>
+        <v>-91.354799999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>43483.944038</v>
+        <v>43483.944038000001</v>
       </c>
       <c r="AU5" s="1">
         <v>12.078873</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.787000</v>
+        <v>995.78700000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.198000</v>
+        <v>-109.19799999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>43494.775145</v>
@@ -1402,377 +1818,377 @@
         <v>12.081882</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.140000</v>
+        <v>1004.14</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.994000</v>
+        <v>-124.994</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>43505.663851</v>
+        <v>43505.663850999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>12.084907</v>
+        <v>12.084906999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1042.810000</v>
+        <v>1042.81</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.543000</v>
+        <v>-197.54300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>43516.351148</v>
+        <v>43516.351148000002</v>
       </c>
       <c r="BJ5" s="1">
         <v>12.087875</v>
       </c>
       <c r="BK5" s="1">
-        <v>1109.490000</v>
+        <v>1109.49</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.414000</v>
+        <v>-315.41399999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>43527.599917</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.091000</v>
+        <v>12.090999999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1217.890000</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-501.694000</v>
+        <v>-501.69400000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>43539.656669</v>
+        <v>43539.656669000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.094349</v>
+        <v>12.094348999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1340.310000</v>
+        <v>1340.31</v>
       </c>
       <c r="BV5" s="1">
-        <v>-706.780000</v>
+        <v>-706.78</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>43550.404447</v>
+        <v>43550.404447000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.097335</v>
+        <v>12.097334999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1477.210000</v>
+        <v>1477.21</v>
       </c>
       <c r="CA5" s="1">
-        <v>-925.274000</v>
+        <v>-925.274</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>43561.617503</v>
+        <v>43561.617503000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>12.100449</v>
+        <v>12.100448999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1837.120000</v>
+        <v>1837.12</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1444.400000</v>
+        <v>-1444.4</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>43389.361891</v>
       </c>
       <c r="B6" s="1">
-        <v>12.052601</v>
+        <v>12.052600999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>906.217000</v>
+        <v>906.21699999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-179.460000</v>
+        <v>-179.46</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>43399.743157</v>
+        <v>43399.743156999997</v>
       </c>
       <c r="G6" s="1">
         <v>12.055484</v>
       </c>
       <c r="H6" s="1">
-        <v>921.133000</v>
+        <v>921.13300000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-154.079000</v>
+        <v>-154.07900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>43410.521719</v>
+        <v>43410.521718999997</v>
       </c>
       <c r="L6" s="1">
-        <v>12.058478</v>
+        <v>12.058477999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>942.342000</v>
+        <v>942.34199999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-112.222000</v>
+        <v>-112.22199999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>43421.045340</v>
+        <v>43421.045339999997</v>
       </c>
       <c r="Q6" s="1">
         <v>12.061401</v>
       </c>
       <c r="R6" s="1">
-        <v>949.221000</v>
+        <v>949.221</v>
       </c>
       <c r="S6" s="1">
-        <v>-98.432600</v>
+        <v>-98.432599999999994</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>43431.542667</v>
+        <v>43431.542667000002</v>
       </c>
       <c r="V6" s="1">
-        <v>12.064317</v>
+        <v>12.064317000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>956.461000</v>
+        <v>956.46100000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-85.600300</v>
+        <v>-85.600300000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>43442.006270</v>
+        <v>43442.006269999998</v>
       </c>
       <c r="AA6" s="1">
         <v>12.067224</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.516000</v>
+        <v>964.51599999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-75.823000</v>
+        <v>-75.822999999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>43452.546787</v>
+        <v>43452.546786999999</v>
       </c>
       <c r="AF6" s="1">
         <v>12.070152</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.790000</v>
+        <v>969.79</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.251200</v>
+        <v>-74.251199999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>43462.992611</v>
+        <v>43462.992611000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.073054</v>
+        <v>12.073054000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.447000</v>
+        <v>977.447</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.492000</v>
+        <v>-79.492000000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>43473.366355</v>
+        <v>43473.366354999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>12.075935</v>
+        <v>12.075934999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.833000</v>
+        <v>985.83299999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.381800</v>
+        <v>-91.381799999999998</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>43484.372581</v>
+        <v>43484.372581000003</v>
       </c>
       <c r="AU6" s="1">
         <v>12.078992</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.796000</v>
+        <v>995.79600000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.183000</v>
+        <v>-109.18300000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>43495.053895</v>
+        <v>43495.053894999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>12.081959</v>
+        <v>12.081958999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.140000</v>
+        <v>1004.14</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.006000</v>
+        <v>-125.006</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>43506.022922</v>
+        <v>43506.022921999996</v>
       </c>
       <c r="BE6" s="1">
         <v>12.085006</v>
       </c>
       <c r="BF6" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.548000</v>
+        <v>-197.548</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>43516.736011</v>
+        <v>43516.736011000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.087982</v>
       </c>
       <c r="BK6" s="1">
-        <v>1109.510000</v>
+        <v>1109.51</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.447000</v>
+        <v>-315.447</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>43528.022972</v>
+        <v>43528.022971999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.091117</v>
+        <v>12.091117000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-501.740000</v>
+        <v>-501.74</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>43540.079254</v>
+        <v>43540.079253999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.094466</v>
+        <v>12.094466000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1340.370000</v>
+        <v>1340.37</v>
       </c>
       <c r="BV6" s="1">
-        <v>-706.707000</v>
+        <v>-706.70699999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>43550.850350</v>
+        <v>43550.850350000001</v>
       </c>
       <c r="BY6" s="1">
         <v>12.097458</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1477.200000</v>
+        <v>1477.2</v>
       </c>
       <c r="CA6" s="1">
-        <v>-925.144000</v>
+        <v>-925.14400000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>43562.133938</v>
+        <v>43562.133937999999</v>
       </c>
       <c r="CD6" s="1">
         <v>12.100593</v>
       </c>
       <c r="CE6" s="1">
-        <v>1837.330000</v>
+        <v>1837.33</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1445.670000</v>
+        <v>-1445.67</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>43390.030002</v>
       </c>
       <c r="B7" s="1">
-        <v>12.052786</v>
+        <v>12.052785999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>906.203000</v>
+        <v>906.20299999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-179.618000</v>
+        <v>-179.61799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>43400.407798</v>
@@ -1781,255 +2197,255 @@
         <v>12.055669</v>
       </c>
       <c r="H7" s="1">
-        <v>921.299000</v>
+        <v>921.29899999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-153.759000</v>
+        <v>-153.75899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>43410.892728</v>
+        <v>43410.892727999999</v>
       </c>
       <c r="L7" s="1">
         <v>12.058581</v>
       </c>
       <c r="M7" s="1">
-        <v>942.371000</v>
+        <v>942.37099999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>-112.184000</v>
+        <v>-112.184</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>43421.415848</v>
+        <v>43421.415847999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>12.061504</v>
+        <v>12.061503999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>949.235000</v>
+        <v>949.23500000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-98.430200</v>
+        <v>-98.430199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>43431.886427</v>
+        <v>43431.886426999998</v>
       </c>
       <c r="V7" s="1">
         <v>12.064413</v>
       </c>
       <c r="W7" s="1">
-        <v>956.391000</v>
+        <v>956.39099999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-85.490700</v>
+        <v>-85.490700000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>43442.355454</v>
+        <v>43442.355453999997</v>
       </c>
       <c r="AA7" s="1">
         <v>12.067321</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.492000</v>
+        <v>964.49199999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-75.822800</v>
+        <v>-75.822800000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>43452.892007</v>
+        <v>43452.892007000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.070248</v>
+        <v>12.070247999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.771000</v>
+        <v>969.77099999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.329200</v>
+        <v>-74.3292</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>43463.421569</v>
+        <v>43463.421568999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>12.073173</v>
+        <v>12.073173000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.475000</v>
+        <v>977.47500000000002</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.516800</v>
+        <v>-79.516800000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>43473.647555</v>
+        <v>43473.647555000003</v>
       </c>
       <c r="AP7" s="1">
         <v>12.076013</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.838000</v>
+        <v>985.83799999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.371100</v>
+        <v>-91.371099999999998</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>43484.676597</v>
+        <v>43484.676596999998</v>
       </c>
       <c r="AU7" s="1">
         <v>12.079077</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.804000</v>
+        <v>995.80399999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.195000</v>
+        <v>-109.19499999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>43495.412502</v>
+        <v>43495.412501999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>12.082059</v>
+        <v>12.082058999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.991000</v>
+        <v>-124.991</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>43506.386525</v>
+        <v>43506.386525000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>12.085107</v>
+        <v>12.085107000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.536000</v>
+        <v>-197.536</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>43517.125867</v>
+        <v>43517.125867000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.088091</v>
       </c>
       <c r="BK7" s="1">
-        <v>1109.500000</v>
+        <v>1109.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.421000</v>
+        <v>-315.42099999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>43528.851292</v>
+        <v>43528.851291999999</v>
       </c>
       <c r="BO7" s="1">
         <v>12.091348</v>
       </c>
       <c r="BP7" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-501.701000</v>
+        <v>-501.70100000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>43540.500363</v>
+        <v>43540.500362999999</v>
       </c>
       <c r="BT7" s="1">
         <v>12.094583</v>
       </c>
       <c r="BU7" s="1">
-        <v>1340.400000</v>
+        <v>1340.4</v>
       </c>
       <c r="BV7" s="1">
-        <v>-706.633000</v>
+        <v>-706.63300000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>43551.281373</v>
+        <v>43551.281372999998</v>
       </c>
       <c r="BY7" s="1">
         <v>12.097578</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1477.070000</v>
+        <v>1477.07</v>
       </c>
       <c r="CA7" s="1">
-        <v>-925.171000</v>
+        <v>-925.17100000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>43562.652190</v>
+        <v>43562.652190000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>12.100737</v>
+        <v>12.100737000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1837.310000</v>
+        <v>1837.31</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1445.600000</v>
+        <v>-1445.6</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>43390.390097</v>
+        <v>43390.390097000003</v>
       </c>
       <c r="B8" s="1">
-        <v>12.052886</v>
+        <v>12.052886000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>906.279000</v>
+        <v>906.279</v>
       </c>
       <c r="D8" s="1">
-        <v>-179.415000</v>
+        <v>-179.41499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>43400.783765</v>
@@ -2038,285 +2454,285 @@
         <v>12.055773</v>
       </c>
       <c r="H8" s="1">
-        <v>921.066000</v>
+        <v>921.06600000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-153.411000</v>
+        <v>-153.411</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>43411.240950</v>
+        <v>43411.240949999999</v>
       </c>
       <c r="L8" s="1">
         <v>12.058678</v>
       </c>
       <c r="M8" s="1">
-        <v>942.366000</v>
+        <v>942.36599999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-112.104000</v>
+        <v>-112.104</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>43421.766038</v>
+        <v>43421.766038000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>12.061602</v>
+        <v>12.061602000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>949.191000</v>
+        <v>949.19100000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-98.440100</v>
+        <v>-98.440100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>43432.232602</v>
+        <v>43432.232601999996</v>
       </c>
       <c r="V8" s="1">
-        <v>12.064509</v>
+        <v>12.064508999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>956.465000</v>
+        <v>956.46500000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-85.648800</v>
+        <v>-85.648799999999994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>43442.784989</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.067440</v>
+        <v>12.06744</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.542000</v>
+        <v>964.54200000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-75.788600</v>
+        <v>-75.788600000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>43453.310603</v>
+        <v>43453.310602999998</v>
       </c>
       <c r="AF8" s="1">
         <v>12.070364</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.742000</v>
+        <v>969.74199999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.243200</v>
+        <v>-74.243200000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>43463.702770</v>
+        <v>43463.702770000004</v>
       </c>
       <c r="AK8" s="1">
-        <v>12.073251</v>
+        <v>12.073251000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.474000</v>
+        <v>977.47400000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.513200</v>
+        <v>-79.513199999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>43474.008165</v>
+        <v>43474.008164999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>12.076113</v>
+        <v>12.076112999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.811000</v>
+        <v>985.81100000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.364900</v>
+        <v>-91.364900000000006</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>43485.038710</v>
+        <v>43485.038710000001</v>
       </c>
       <c r="AU8" s="1">
         <v>12.079177</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.789000</v>
+        <v>995.78899999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.192000</v>
+        <v>-109.19199999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>43495.772114</v>
+        <v>43495.772113999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.082159</v>
+        <v>12.082159000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.016000</v>
+        <v>-125.01600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>43507.109159</v>
       </c>
       <c r="BE8" s="1">
-        <v>12.085308</v>
+        <v>12.085307999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1042.830000</v>
+        <v>1042.83</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.533000</v>
+        <v>-197.53299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>43517.866889</v>
+        <v>43517.866888999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>12.088296</v>
       </c>
       <c r="BK8" s="1">
-        <v>1109.510000</v>
+        <v>1109.51</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.485000</v>
+        <v>-315.48500000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>43529.259036</v>
+        <v>43529.259036000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>12.091461</v>
+        <v>12.091461000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-501.724000</v>
+        <v>-501.72399999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>43540.926435</v>
+        <v>43540.926435000001</v>
       </c>
       <c r="BT8" s="1">
         <v>12.094702</v>
       </c>
       <c r="BU8" s="1">
-        <v>1340.430000</v>
+        <v>1340.43</v>
       </c>
       <c r="BV8" s="1">
-        <v>-706.526000</v>
+        <v>-706.52599999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>43551.704957</v>
+        <v>43551.704957000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>12.097696</v>
+        <v>12.097695999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1477.190000</v>
+        <v>1477.19</v>
       </c>
       <c r="CA8" s="1">
-        <v>-925.147000</v>
+        <v>-925.14700000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>43563.523628</v>
+        <v>43563.523628000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>12.100979</v>
+        <v>12.100979000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1837.050000</v>
+        <v>1837.05</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1444.850000</v>
+        <v>-1444.85</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>43390.737298</v>
       </c>
       <c r="B9" s="1">
-        <v>12.052983</v>
+        <v>12.052982999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>906.084000</v>
+        <v>906.08399999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-179.795000</v>
+        <v>-179.79499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>43401.125012</v>
+        <v>43401.125011999997</v>
       </c>
       <c r="G9" s="1">
         <v>12.055868</v>
       </c>
       <c r="H9" s="1">
-        <v>920.824000</v>
+        <v>920.82399999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-153.059000</v>
+        <v>-153.059</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>43411.586133</v>
+        <v>43411.586132999997</v>
       </c>
       <c r="L9" s="1">
         <v>12.058774</v>
       </c>
       <c r="M9" s="1">
-        <v>942.262000</v>
+        <v>942.26199999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-112.193000</v>
+        <v>-112.193</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>43422.331005</v>
@@ -2325,300 +2741,300 @@
         <v>12.061759</v>
       </c>
       <c r="R9" s="1">
-        <v>949.262000</v>
+        <v>949.26199999999994</v>
       </c>
       <c r="S9" s="1">
-        <v>-98.414000</v>
+        <v>-98.414000000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>43432.648780</v>
+        <v>43432.648780000003</v>
       </c>
       <c r="V9" s="1">
-        <v>12.064625</v>
+        <v>12.064624999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>956.462000</v>
+        <v>956.46199999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-85.620500</v>
+        <v>-85.620500000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>43443.055309</v>
+        <v>43443.055309000003</v>
       </c>
       <c r="AA9" s="1">
         <v>12.067515</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.533000</v>
+        <v>964.53300000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-75.792600</v>
+        <v>-75.792599999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>43453.588878</v>
+        <v>43453.588878000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.070441</v>
+        <v>12.070441000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.759000</v>
+        <v>969.75900000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.268500</v>
+        <v>-74.268500000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>43464.051455</v>
+        <v>43464.051455000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.073348</v>
+        <v>12.073347999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.475000</v>
+        <v>977.47500000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.540300</v>
+        <v>-79.540300000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>43474.371219</v>
+        <v>43474.371219000001</v>
       </c>
       <c r="AP9" s="1">
         <v>12.076214</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.839000</v>
+        <v>985.83900000000006</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.363800</v>
+        <v>-91.363799999999998</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>43485.407223</v>
+        <v>43485.407223000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.079280</v>
+        <v>12.079280000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.793000</v>
+        <v>995.79300000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.216000</v>
+        <v>-109.21599999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>43496.497750</v>
+        <v>43496.497750000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.082360</v>
+        <v>12.08236</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.003000</v>
+        <v>-125.003</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>43507.463834</v>
+        <v>43507.463834000002</v>
       </c>
       <c r="BE9" s="1">
         <v>12.085407</v>
       </c>
       <c r="BF9" s="1">
-        <v>1042.810000</v>
+        <v>1042.81</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.540000</v>
+        <v>-197.54</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>43518.277576</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.088410</v>
+        <v>12.08841</v>
       </c>
       <c r="BK9" s="1">
-        <v>1109.430000</v>
+        <v>1109.43</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.434000</v>
+        <v>-315.43400000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>43529.657290</v>
+        <v>43529.657290000003</v>
       </c>
       <c r="BO9" s="1">
         <v>12.091571</v>
       </c>
       <c r="BP9" s="1">
-        <v>1217.890000</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-501.740000</v>
+        <v>-501.74</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>43541.650058</v>
+        <v>43541.650057999999</v>
       </c>
       <c r="BT9" s="1">
         <v>12.094903</v>
       </c>
       <c r="BU9" s="1">
-        <v>1340.370000</v>
+        <v>1340.37</v>
       </c>
       <c r="BV9" s="1">
-        <v>-706.479000</v>
+        <v>-706.47900000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>43552.434075</v>
+        <v>43552.434074999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.097898</v>
+        <v>12.097898000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1477.130000</v>
+        <v>1477.13</v>
       </c>
       <c r="CA9" s="1">
-        <v>-925.053000</v>
+        <v>-925.053</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>43563.730494</v>
+        <v>43563.730494000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>12.101036</v>
+        <v>12.101036000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1837.800000</v>
+        <v>1837.8</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1445.930000</v>
+        <v>-1445.93</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>43391.079041</v>
+        <v>43391.079040999997</v>
       </c>
       <c r="B10" s="1">
-        <v>12.053078</v>
+        <v>12.053077999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>906.198000</v>
+        <v>906.19799999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-179.568000</v>
+        <v>-179.56800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>43401.468771</v>
       </c>
       <c r="G10" s="1">
-        <v>12.055964</v>
+        <v>12.055963999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>921.069000</v>
+        <v>921.06899999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-153.730000</v>
+        <v>-153.72999999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>43412.008229</v>
+        <v>43412.008228999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.058891</v>
+        <v>12.058890999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>942.348000</v>
+        <v>942.34799999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-112.215000</v>
+        <v>-112.215</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>43422.460424</v>
+        <v>43422.460423999997</v>
       </c>
       <c r="Q10" s="1">
         <v>12.061795</v>
       </c>
       <c r="R10" s="1">
-        <v>949.296000</v>
+        <v>949.29600000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-98.436200</v>
+        <v>-98.436199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>43432.939401</v>
+        <v>43432.939401000003</v>
       </c>
       <c r="V10" s="1">
         <v>12.064705</v>
       </c>
       <c r="W10" s="1">
-        <v>956.428000</v>
+        <v>956.428</v>
       </c>
       <c r="X10" s="1">
-        <v>-85.567900</v>
+        <v>-85.567899999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>43443.402508</v>
+        <v>43443.402507999999</v>
       </c>
       <c r="AA10" s="1">
         <v>12.067612</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.441000</v>
+        <v>964.44100000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-75.781900</v>
+        <v>-75.781899999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>43453.934062</v>
@@ -2627,784 +3043,784 @@
         <v>12.070537</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.747000</v>
+        <v>969.74699999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.248900</v>
+        <v>-74.248900000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>43464.398656</v>
+        <v>43464.398655999998</v>
       </c>
       <c r="AK10" s="1">
         <v>12.073444</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.448000</v>
+        <v>977.44799999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.514400</v>
+        <v>-79.514399999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>43475.090923</v>
+        <v>43475.090923000003</v>
       </c>
       <c r="AP10" s="1">
         <v>12.076414</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.824000</v>
+        <v>985.82399999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.382500</v>
+        <v>-91.382499999999993</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>43486.133347</v>
+        <v>43486.133347000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>12.079481</v>
+        <v>12.079480999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.807000</v>
+        <v>995.80700000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.202000</v>
+        <v>-109.202</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>43496.875700</v>
+        <v>43496.875699999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>12.082465</v>
+        <v>12.082464999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.993000</v>
+        <v>-124.99299999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>43507.830840</v>
+        <v>43507.830840000002</v>
       </c>
       <c r="BE10" s="1">
         <v>12.085509</v>
       </c>
       <c r="BF10" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.540000</v>
+        <v>-197.54</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>43518.652586</v>
+        <v>43518.652585999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.088515</v>
+        <v>12.088514999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1109.490000</v>
+        <v>1109.49</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.425000</v>
+        <v>-315.42500000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>43530.398312</v>
+        <v>43530.398311999998</v>
       </c>
       <c r="BO10" s="1">
         <v>12.091777</v>
       </c>
       <c r="BP10" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-501.718000</v>
+        <v>-501.71800000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>43541.770585</v>
+        <v>43541.770584999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.094936</v>
+        <v>12.094936000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1340.340000</v>
+        <v>1340.34</v>
       </c>
       <c r="BV10" s="1">
-        <v>-706.391000</v>
+        <v>-706.39099999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>43552.552127</v>
+        <v>43552.552127000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.097931</v>
+        <v>12.097931000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1477.150000</v>
+        <v>1477.15</v>
       </c>
       <c r="CA10" s="1">
-        <v>-925.171000</v>
+        <v>-925.17100000000005</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>43564.251788</v>
+        <v>43564.251788000001</v>
       </c>
       <c r="CD10" s="1">
         <v>12.101181</v>
       </c>
       <c r="CE10" s="1">
-        <v>1838.030000</v>
+        <v>1838.03</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1444.010000</v>
+        <v>-1444.01</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>43391.498805</v>
+        <v>43391.498805000003</v>
       </c>
       <c r="B11" s="1">
         <v>12.053194</v>
       </c>
       <c r="C11" s="1">
-        <v>906.370000</v>
+        <v>906.37</v>
       </c>
       <c r="D11" s="1">
-        <v>-179.493000</v>
+        <v>-179.49299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>43401.902244</v>
+        <v>43401.902243999997</v>
       </c>
       <c r="G11" s="1">
         <v>12.056084</v>
       </c>
       <c r="H11" s="1">
-        <v>921.188000</v>
+        <v>921.18799999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-153.460000</v>
+        <v>-153.46</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>43412.279077</v>
+        <v>43412.279076999999</v>
       </c>
       <c r="L11" s="1">
         <v>12.058966</v>
       </c>
       <c r="M11" s="1">
-        <v>942.321000</v>
+        <v>942.32100000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-112.042000</v>
+        <v>-112.042</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>43422.812086</v>
+        <v>43422.812085999998</v>
       </c>
       <c r="Q11" s="1">
         <v>12.061892</v>
       </c>
       <c r="R11" s="1">
-        <v>949.284000</v>
+        <v>949.28399999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-98.418300</v>
+        <v>-98.418300000000002</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>43433.284626</v>
+        <v>43433.284626000001</v>
       </c>
       <c r="V11" s="1">
-        <v>12.064801</v>
+        <v>12.064800999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>956.506000</v>
+        <v>956.50599999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-85.574700</v>
+        <v>-85.574700000000007</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>43443.751728</v>
+        <v>43443.751728000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.067709</v>
+        <v>12.067709000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.566000</v>
+        <v>964.56600000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-75.795800</v>
+        <v>-75.7958</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>43454.278819</v>
+        <v>43454.278818999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.070633</v>
+        <v>12.070633000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.771000</v>
+        <v>969.77099999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.299700</v>
+        <v>-74.299700000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>43465.096063</v>
+        <v>43465.096062999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>12.073638</v>
+        <v>12.073638000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.467000</v>
+        <v>977.46699999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.519800</v>
+        <v>-79.519800000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>43475.448033</v>
+        <v>43475.448033000001</v>
       </c>
       <c r="AP11" s="1">
         <v>12.076513</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.826000</v>
+        <v>985.82600000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.357400</v>
+        <v>-91.357399999999998</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>43486.522707</v>
+        <v>43486.522706999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>12.079590</v>
+        <v>12.07959</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.801000</v>
+        <v>995.80100000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.209000</v>
+        <v>-109.209</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>43497.253156</v>
+        <v>43497.253155999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>12.082570</v>
+        <v>12.08257</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.008000</v>
+        <v>-125.008</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>43508.505895</v>
+        <v>43508.505895000002</v>
       </c>
       <c r="BE11" s="1">
         <v>12.085696</v>
       </c>
       <c r="BF11" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.551000</v>
+        <v>-197.55099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>43519.367783</v>
+        <v>43519.367783000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>12.088713</v>
       </c>
       <c r="BK11" s="1">
-        <v>1109.470000</v>
+        <v>1109.47</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.448000</v>
+        <v>-315.44799999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>43530.512888</v>
+        <v>43530.512887999997</v>
       </c>
       <c r="BO11" s="1">
         <v>12.091809</v>
       </c>
       <c r="BP11" s="1">
-        <v>1217.880000</v>
+        <v>1217.8800000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-501.696000</v>
+        <v>-501.69600000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>43542.209049</v>
+        <v>43542.209048999997</v>
       </c>
       <c r="BT11" s="1">
         <v>12.095058</v>
       </c>
       <c r="BU11" s="1">
-        <v>1340.310000</v>
+        <v>1340.31</v>
       </c>
       <c r="BV11" s="1">
-        <v>-706.281000</v>
+        <v>-706.28099999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>43553.001518</v>
+        <v>43553.001517999997</v>
       </c>
       <c r="BY11" s="1">
         <v>12.098056</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1476.960000</v>
+        <v>1476.96</v>
       </c>
       <c r="CA11" s="1">
-        <v>-925.110000</v>
+        <v>-925.11</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>43564.787436</v>
+        <v>43564.787435999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.101330</v>
+        <v>12.101330000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1837.390000</v>
+        <v>1837.39</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1445.660000</v>
+        <v>-1445.66</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>43391.774928</v>
+        <v>43391.774927999999</v>
       </c>
       <c r="B12" s="1">
-        <v>12.053271</v>
+        <v>12.053271000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>906.281000</v>
+        <v>906.28099999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-179.664000</v>
+        <v>-179.66399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>43402.157683</v>
+        <v>43402.157682999998</v>
       </c>
       <c r="G12" s="1">
         <v>12.056155</v>
       </c>
       <c r="H12" s="1">
-        <v>921.284000</v>
+        <v>921.28399999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-153.264000</v>
+        <v>-153.26400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>43412.623764</v>
+        <v>43412.623764000004</v>
       </c>
       <c r="L12" s="1">
-        <v>12.059062</v>
+        <v>12.059062000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>942.304000</v>
+        <v>942.30399999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-112.132000</v>
+        <v>-112.13200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>43423.161798</v>
+        <v>43423.161798000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.061989</v>
+        <v>12.061989000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>949.195000</v>
+        <v>949.19500000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-98.424400</v>
+        <v>-98.424400000000006</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>43433.629370</v>
+        <v>43433.629370000002</v>
       </c>
       <c r="V12" s="1">
         <v>12.064897</v>
       </c>
       <c r="W12" s="1">
-        <v>956.445000</v>
+        <v>956.44500000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-85.643800</v>
+        <v>-85.643799999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>43444.446586</v>
+        <v>43444.446585999998</v>
       </c>
       <c r="AA12" s="1">
         <v>12.067902</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.589000</v>
+        <v>964.58900000000006</v>
       </c>
       <c r="AC12" s="1">
-        <v>-75.796300</v>
+        <v>-75.796300000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>43454.964763</v>
+        <v>43454.964763000004</v>
       </c>
       <c r="AF12" s="1">
         <v>12.070824</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.762000</v>
+        <v>969.76199999999994</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.256200</v>
+        <v>-74.256200000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>43465.445216</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.073735</v>
+        <v>12.073734999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.460000</v>
+        <v>977.46</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.529400</v>
+        <v>-79.529399999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>43475.811632</v>
+        <v>43475.811631999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.076614</v>
+        <v>12.076613999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.815000</v>
+        <v>985.81500000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.368700</v>
+        <v>-91.368700000000004</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>43486.896194</v>
+        <v>43486.896194000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.079693</v>
+        <v>12.079693000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.799000</v>
+        <v>995.79899999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.191000</v>
+        <v>-109.191</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>43497.927219</v>
+        <v>43497.927218999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.082758</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.987000</v>
+        <v>-124.98699999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>43508.929973</v>
+        <v>43508.929972999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>12.085814</v>
+        <v>12.085813999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.524000</v>
+        <v>-197.524</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>43519.821126</v>
+        <v>43519.821126000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>12.088839</v>
       </c>
       <c r="BK12" s="1">
-        <v>1109.480000</v>
+        <v>1109.48</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.380000</v>
+        <v>-315.38</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>43530.898812</v>
+        <v>43530.898811999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.091916</v>
+        <v>12.091915999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1217.840000</v>
+        <v>1217.8399999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-501.700000</v>
+        <v>-501.7</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>43542.636600</v>
+        <v>43542.636599999998</v>
       </c>
       <c r="BT12" s="1">
         <v>12.095177</v>
       </c>
       <c r="BU12" s="1">
-        <v>1340.240000</v>
+        <v>1340.24</v>
       </c>
       <c r="BV12" s="1">
-        <v>-706.241000</v>
+        <v>-706.24099999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>43553.577851</v>
+        <v>43553.577851000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.098216</v>
+        <v>12.098216000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1477.110000</v>
+        <v>1477.11</v>
       </c>
       <c r="CA12" s="1">
-        <v>-925.275000</v>
+        <v>-925.27499999999998</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>43565.328570</v>
+        <v>43565.328569999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>12.101480</v>
+        <v>12.10148</v>
       </c>
       <c r="CE12" s="1">
-        <v>1838.530000</v>
+        <v>1838.53</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1445.040000</v>
+        <v>-1445.04</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>43392.115934</v>
+        <v>43392.115934000001</v>
       </c>
       <c r="B13" s="1">
         <v>12.053366</v>
       </c>
       <c r="C13" s="1">
-        <v>906.379000</v>
+        <v>906.37900000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-179.601000</v>
+        <v>-179.601</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>43402.505875</v>
+        <v>43402.505875000003</v>
       </c>
       <c r="G13" s="1">
-        <v>12.056252</v>
+        <v>12.056252000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>921.019000</v>
+        <v>921.01900000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-153.247000</v>
+        <v>-153.24700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>43412.969475</v>
+        <v>43412.969474999998</v>
       </c>
       <c r="L13" s="1">
         <v>12.059158</v>
       </c>
       <c r="M13" s="1">
-        <v>942.257000</v>
+        <v>942.25699999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-112.135000</v>
+        <v>-112.13500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>43423.857158</v>
+        <v>43423.857157999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>12.062183</v>
+        <v>12.062182999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>949.219000</v>
+        <v>949.21900000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-98.377800</v>
+        <v>-98.377799999999993</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>43434.313852</v>
+        <v>43434.313851999999</v>
       </c>
       <c r="V13" s="1">
         <v>12.065087</v>
       </c>
       <c r="W13" s="1">
-        <v>956.408000</v>
+        <v>956.40800000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-85.437300</v>
+        <v>-85.437299999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>43444.798780</v>
+        <v>43444.798779999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.068000</v>
+        <v>12.068</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.530000</v>
+        <v>964.53</v>
       </c>
       <c r="AC13" s="1">
-        <v>-75.797900</v>
+        <v>-75.797899999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>43455.305532</v>
+        <v>43455.305531999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>12.070918</v>
+        <v>12.070918000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.788000</v>
+        <v>969.78800000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.290100</v>
+        <v>-74.290099999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>43465.792942</v>
@@ -3413,408 +3829,408 @@
         <v>12.073831</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.477000</v>
+        <v>977.47699999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.520900</v>
+        <v>-79.520899999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>43476.484704</v>
+        <v>43476.484704000002</v>
       </c>
       <c r="AP13" s="1">
         <v>12.076801</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.830000</v>
+        <v>985.83</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.354500</v>
+        <v>-91.354500000000002</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>43487.599521</v>
+        <v>43487.599520999996</v>
       </c>
       <c r="AU13" s="1">
         <v>12.079889</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.780000</v>
+        <v>995.78</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.200000</v>
+        <v>-109.2</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>43498.335427</v>
+        <v>43498.335426999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>12.082871</v>
+        <v>12.082871000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.009000</v>
+        <v>-125.009</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>43509.293080</v>
+        <v>43509.293080000003</v>
       </c>
       <c r="BE13" s="1">
         <v>12.085915</v>
       </c>
       <c r="BF13" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.539000</v>
+        <v>-197.53899999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>43520.199575</v>
+        <v>43520.199574999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>12.088944</v>
       </c>
       <c r="BK13" s="1">
-        <v>1109.510000</v>
+        <v>1109.51</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.474000</v>
+        <v>-315.47399999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>43531.320386</v>
+        <v>43531.320385999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.092033</v>
+        <v>12.092033000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-501.699000</v>
+        <v>-501.69900000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>43543.061213</v>
+        <v>43543.061213000001</v>
       </c>
       <c r="BT13" s="1">
         <v>12.095295</v>
       </c>
       <c r="BU13" s="1">
-        <v>1340.200000</v>
+        <v>1340.2</v>
       </c>
       <c r="BV13" s="1">
-        <v>-706.199000</v>
+        <v>-706.19899999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>43553.883883</v>
+        <v>43553.883883000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>12.098301</v>
+        <v>12.098300999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1477.150000</v>
+        <v>1477.15</v>
       </c>
       <c r="CA13" s="1">
-        <v>-925.108000</v>
+        <v>-925.10799999999995</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>43565.868255</v>
+        <v>43565.868255000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>12.101630</v>
+        <v>12.10163</v>
       </c>
       <c r="CE13" s="1">
-        <v>1837.060000</v>
+        <v>1837.06</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1444.810000</v>
+        <v>-1444.81</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>43392.460436</v>
+        <v>43392.460436000001</v>
       </c>
       <c r="B14" s="1">
         <v>12.053461</v>
       </c>
       <c r="C14" s="1">
-        <v>906.215000</v>
+        <v>906.21500000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-179.536000</v>
+        <v>-179.536</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>43402.849139</v>
+        <v>43402.849138999998</v>
       </c>
       <c r="G14" s="1">
-        <v>12.056347</v>
+        <v>12.056347000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>921.180000</v>
+        <v>921.18</v>
       </c>
       <c r="I14" s="1">
-        <v>-152.868000</v>
+        <v>-152.86799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>43413.663618</v>
+        <v>43413.663617999999</v>
       </c>
       <c r="L14" s="1">
-        <v>12.059351</v>
+        <v>12.059350999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>942.395000</v>
+        <v>942.39499999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-112.130000</v>
+        <v>-112.13</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>43424.204412</v>
+        <v>43424.204411999999</v>
       </c>
       <c r="Q14" s="1">
         <v>12.062279</v>
       </c>
       <c r="R14" s="1">
-        <v>949.236000</v>
+        <v>949.23599999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-98.407100</v>
+        <v>-98.4071</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>43434.659030</v>
+        <v>43434.659030000003</v>
       </c>
       <c r="V14" s="1">
-        <v>12.065183</v>
+        <v>12.065182999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>956.462000</v>
+        <v>956.46199999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-85.615600</v>
+        <v>-85.615600000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>43445.144329</v>
+        <v>43445.144329000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>12.068096</v>
+        <v>12.068096000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.541000</v>
+        <v>964.54100000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-75.805900</v>
+        <v>-75.805899999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>43455.968155</v>
+        <v>43455.968155000002</v>
       </c>
       <c r="AF14" s="1">
         <v>12.071102</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.753000</v>
+        <v>969.75300000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.264200</v>
+        <v>-74.264200000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>43466.454574</v>
+        <v>43466.454574000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.074015</v>
+        <v>12.074014999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.468000</v>
+        <v>977.46799999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.535000</v>
+        <v>-79.534999999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>43476.920191</v>
+        <v>43476.920190999997</v>
       </c>
       <c r="AP14" s="1">
         <v>12.076922</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.813000</v>
+        <v>985.81299999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.359700</v>
+        <v>-91.359700000000004</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>43487.983456</v>
+        <v>43487.983456000002</v>
       </c>
       <c r="AU14" s="1">
         <v>12.079995</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.769000</v>
+        <v>995.76900000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.190000</v>
+        <v>-109.19</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>43498.711924</v>
+        <v>43498.711924000003</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.082976</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.001000</v>
+        <v>-125.001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>43509.656116</v>
+        <v>43509.656115999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.086016</v>
+        <v>12.086016000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.547000</v>
+        <v>-197.547</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>43520.830982</v>
+        <v>43520.830981999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>12.089120</v>
+        <v>12.089119999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1109.470000</v>
+        <v>1109.47</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.421000</v>
+        <v>-315.42099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>43531.751426</v>
+        <v>43531.751426000003</v>
       </c>
       <c r="BO14" s="1">
         <v>12.092153</v>
       </c>
       <c r="BP14" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-501.694000</v>
+        <v>-501.69400000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>43543.475831</v>
+        <v>43543.475831000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>12.095410</v>
+        <v>12.095409999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1340.030000</v>
+        <v>1340.03</v>
       </c>
       <c r="BV14" s="1">
-        <v>-706.220000</v>
+        <v>-706.22</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>43554.304025</v>
+        <v>43554.304024999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>12.098418</v>
+        <v>12.098418000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1477.150000</v>
+        <v>1477.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-925.183000</v>
+        <v>-925.18299999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>43566.409878</v>
+        <v>43566.409877999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>12.101781</v>
+        <v>12.101781000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1838.190000</v>
+        <v>1838.19</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1445.760000</v>
+        <v>-1445.76</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>43393.142429</v>
       </c>
@@ -3822,13 +4238,13 @@
         <v>12.053651</v>
       </c>
       <c r="C15" s="1">
-        <v>906.291000</v>
+        <v>906.29100000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-179.565000</v>
+        <v>-179.565</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>43403.536064</v>
@@ -3837,73 +4253,73 @@
         <v>12.056538</v>
       </c>
       <c r="H15" s="1">
-        <v>921.168000</v>
+        <v>921.16800000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-153.095000</v>
+        <v>-153.095</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>43414.013554</v>
+        <v>43414.013553999997</v>
       </c>
       <c r="L15" s="1">
         <v>12.059448</v>
       </c>
       <c r="M15" s="1">
-        <v>942.447000</v>
+        <v>942.447</v>
       </c>
       <c r="N15" s="1">
-        <v>-112.101000</v>
+        <v>-112.101</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>43424.554532</v>
+        <v>43424.554532000002</v>
       </c>
       <c r="Q15" s="1">
         <v>12.062376</v>
       </c>
       <c r="R15" s="1">
-        <v>949.287000</v>
+        <v>949.28700000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-98.410100</v>
+        <v>-98.4101</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>43435.000776</v>
+        <v>43435.000776000001</v>
       </c>
       <c r="V15" s="1">
-        <v>12.065278</v>
+        <v>12.065277999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>956.416000</v>
+        <v>956.41600000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-85.735900</v>
+        <v>-85.735900000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>43445.821036</v>
+        <v>43445.821036000001</v>
       </c>
       <c r="AA15" s="1">
         <v>12.068284</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.536000</v>
+        <v>964.53599999999994</v>
       </c>
       <c r="AC15" s="1">
-        <v>-75.846600</v>
+        <v>-75.846599999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>43456.335196</v>
@@ -3912,43 +4328,43 @@
         <v>12.071204</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.757000</v>
+        <v>969.75699999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.280600</v>
+        <v>-74.280600000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>43466.839965</v>
+        <v>43466.839964999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.074122</v>
+        <v>12.074121999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.472000</v>
+        <v>977.47199999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.519200</v>
+        <v>-79.519199999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>43477.281247</v>
+        <v>43477.281246999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>12.077023</v>
+        <v>12.077023000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.818000</v>
+        <v>985.81799999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.365000</v>
+        <v>-91.364999999999995</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>43488.348479</v>
@@ -3957,135 +4373,135 @@
         <v>12.080097</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.790000</v>
+        <v>995.79</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.198000</v>
+        <v>-109.19799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>43499.091827</v>
+        <v>43499.091826999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.083081</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.130000</v>
+        <v>1004.13</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.003000</v>
+        <v>-125.003</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>43510.082677</v>
+        <v>43510.082676999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>12.086134</v>
+        <v>12.086133999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.533000</v>
+        <v>-197.53299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>43520.952005</v>
+        <v>43520.952004999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>12.089153</v>
       </c>
       <c r="BK15" s="1">
-        <v>1109.520000</v>
+        <v>1109.52</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.416000</v>
+        <v>-315.416</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>43532.140264</v>
+        <v>43532.140264000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>12.092261</v>
+        <v>12.092261000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-501.705000</v>
+        <v>-501.70499999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>43543.906855</v>
+        <v>43543.906855000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>12.095530</v>
+        <v>12.09553</v>
       </c>
       <c r="BU15" s="1">
-        <v>1339.950000</v>
+        <v>1339.95</v>
       </c>
       <c r="BV15" s="1">
-        <v>-706.241000</v>
+        <v>-706.24099999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>43554.728601</v>
+        <v>43554.728601000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.098536</v>
+        <v>12.098535999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1477.280000</v>
+        <v>1477.28</v>
       </c>
       <c r="CA15" s="1">
-        <v>-925.320000</v>
+        <v>-925.32</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>43566.953464</v>
+        <v>43566.953463999998</v>
       </c>
       <c r="CD15" s="1">
         <v>12.101932</v>
       </c>
       <c r="CE15" s="1">
-        <v>1837.590000</v>
+        <v>1837.59</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1444.000000</v>
+        <v>-1444</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>43393.487645</v>
+        <v>43393.487645000001</v>
       </c>
       <c r="B16" s="1">
         <v>12.053747</v>
       </c>
       <c r="C16" s="1">
-        <v>906.399000</v>
+        <v>906.399</v>
       </c>
       <c r="D16" s="1">
-        <v>-179.467000</v>
+        <v>-179.46700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>43403.880288</v>
@@ -4094,28 +4510,28 @@
         <v>12.056633</v>
       </c>
       <c r="H16" s="1">
-        <v>921.258000</v>
+        <v>921.25800000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-153.289000</v>
+        <v>-153.28899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>43414.355330</v>
+        <v>43414.355329999999</v>
       </c>
       <c r="L16" s="1">
         <v>12.059543</v>
       </c>
       <c r="M16" s="1">
-        <v>942.236000</v>
+        <v>942.23599999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-112.084000</v>
+        <v>-112.084</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>43425.224166</v>
@@ -4124,133 +4540,133 @@
         <v>12.062562</v>
       </c>
       <c r="R16" s="1">
-        <v>949.235000</v>
+        <v>949.23500000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-98.407700</v>
+        <v>-98.407700000000006</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>43435.655024</v>
       </c>
       <c r="V16" s="1">
-        <v>12.065460</v>
+        <v>12.06546</v>
       </c>
       <c r="W16" s="1">
-        <v>956.290000</v>
+        <v>956.29</v>
       </c>
       <c r="X16" s="1">
-        <v>-85.459500</v>
+        <v>-85.459500000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>43446.190060</v>
+        <v>43446.190060000001</v>
       </c>
       <c r="AA16" s="1">
         <v>12.068386</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.488000</v>
+        <v>964.48800000000006</v>
       </c>
       <c r="AC16" s="1">
-        <v>-75.817600</v>
+        <v>-75.817599999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>43456.680938</v>
+        <v>43456.680937999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>12.071300</v>
+        <v>12.071300000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.776000</v>
+        <v>969.77599999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.314400</v>
+        <v>-74.314400000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>43467.187196</v>
+        <v>43467.187195999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>12.074219</v>
+        <v>12.074218999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.481000</v>
+        <v>977.48099999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.501400</v>
+        <v>-79.501400000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>43477.643326</v>
+        <v>43477.643325999998</v>
       </c>
       <c r="AP16" s="1">
         <v>12.077123</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.812000</v>
+        <v>985.81200000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.369000</v>
+        <v>-91.369</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>43488.771108</v>
+        <v>43488.771108000001</v>
       </c>
       <c r="AU16" s="1">
         <v>12.080214</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.780000</v>
+        <v>995.78</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.203000</v>
+        <v>-109.203</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>43499.521857</v>
       </c>
       <c r="AZ16" s="1">
-        <v>12.083201</v>
+        <v>12.083201000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.006000</v>
+        <v>-125.006</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>43510.377796</v>
+        <v>43510.377796000001</v>
       </c>
       <c r="BE16" s="1">
         <v>12.086216</v>
       </c>
       <c r="BF16" s="1">
-        <v>1042.830000</v>
+        <v>1042.83</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.533000</v>
+        <v>-197.53299999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>43521.360212</v>
@@ -4259,210 +4675,210 @@
         <v>12.089267</v>
       </c>
       <c r="BK16" s="1">
-        <v>1109.470000</v>
+        <v>1109.47</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.481000</v>
+        <v>-315.48099999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>43532.537094</v>
+        <v>43532.537093999999</v>
       </c>
       <c r="BO16" s="1">
         <v>12.092371</v>
       </c>
       <c r="BP16" s="1">
-        <v>1217.890000</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-501.703000</v>
+        <v>-501.70299999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>43544.320054</v>
+        <v>43544.320054000003</v>
       </c>
       <c r="BT16" s="1">
         <v>12.095644</v>
       </c>
       <c r="BU16" s="1">
-        <v>1339.880000</v>
+        <v>1339.88</v>
       </c>
       <c r="BV16" s="1">
-        <v>-706.322000</v>
+        <v>-706.322</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>43555.175004</v>
+        <v>43555.175003999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>12.098660</v>
+        <v>12.098660000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1477.140000</v>
+        <v>1477.14</v>
       </c>
       <c r="CA16" s="1">
-        <v>-925.090000</v>
+        <v>-925.09</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>43567.489639</v>
+        <v>43567.489638999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>12.102080</v>
+        <v>12.102080000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1837.580000</v>
+        <v>1837.58</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1446.010000</v>
+        <v>-1446.01</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>43393.828863</v>
+        <v>43393.828863000002</v>
       </c>
       <c r="B17" s="1">
         <v>12.053841</v>
       </c>
       <c r="C17" s="1">
-        <v>906.231000</v>
+        <v>906.23099999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-179.379000</v>
+        <v>-179.37899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>43404.226496</v>
+        <v>43404.226496000003</v>
       </c>
       <c r="G17" s="1">
-        <v>12.056730</v>
+        <v>12.05673</v>
       </c>
       <c r="H17" s="1">
-        <v>921.283000</v>
+        <v>921.28300000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-153.394000</v>
+        <v>-153.39400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>43415.019441</v>
+        <v>43415.019440999997</v>
       </c>
       <c r="L17" s="1">
         <v>12.059728</v>
       </c>
       <c r="M17" s="1">
-        <v>942.335000</v>
+        <v>942.33500000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-112.288000</v>
+        <v>-112.288</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>43425.598612</v>
+        <v>43425.598612000002</v>
       </c>
       <c r="Q17" s="1">
         <v>12.062666</v>
       </c>
       <c r="R17" s="1">
-        <v>949.237000</v>
+        <v>949.23699999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-98.374000</v>
+        <v>-98.373999999999995</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>43436.029974</v>
+        <v>43436.029973999997</v>
       </c>
       <c r="V17" s="1">
         <v>12.065564</v>
       </c>
       <c r="W17" s="1">
-        <v>956.408000</v>
+        <v>956.40800000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-85.478300</v>
+        <v>-85.478300000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>43446.538743</v>
+        <v>43446.538742999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>12.068483</v>
+        <v>12.068483000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.547000</v>
+        <v>964.54700000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-75.778100</v>
+        <v>-75.778099999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>43457.023674</v>
+        <v>43457.023673999996</v>
       </c>
       <c r="AF17" s="1">
-        <v>12.071395</v>
+        <v>12.071395000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.761000</v>
+        <v>969.76099999999997</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.305700</v>
+        <v>-74.305700000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>43467.538331</v>
+        <v>43467.538331000003</v>
       </c>
       <c r="AK17" s="1">
         <v>12.074316</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.485000</v>
+        <v>977.48500000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.521700</v>
+        <v>-79.521699999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>43478.061982</v>
+        <v>43478.061981999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>12.077239</v>
+        <v>12.077239000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.832000</v>
+        <v>985.83199999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.367700</v>
+        <v>-91.367699999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>43489.076148</v>
@@ -4471,859 +4887,859 @@
         <v>12.080299</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.785000</v>
+        <v>995.78499999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.202000</v>
+        <v>-109.202</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>43499.808049</v>
+        <v>43499.808048999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>12.083280</v>
+        <v>12.08328</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.011000</v>
+        <v>-125.011</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>43510.739874</v>
+        <v>43510.739873999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>12.086317</v>
+        <v>12.086316999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1042.800000</v>
+        <v>1042.8</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.521000</v>
+        <v>-197.52099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>43521.735188</v>
+        <v>43521.735187999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>12.089371</v>
       </c>
       <c r="BK17" s="1">
-        <v>1109.470000</v>
+        <v>1109.47</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.492000</v>
+        <v>-315.49200000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>43532.958207</v>
+        <v>43532.958207000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.092488</v>
+        <v>12.092487999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-501.755000</v>
+        <v>-501.755</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>43544.750549</v>
+        <v>43544.750548999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>12.095764</v>
+        <v>12.095764000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1339.810000</v>
+        <v>1339.81</v>
       </c>
       <c r="BV17" s="1">
-        <v>-706.333000</v>
+        <v>-706.33299999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>43555.606983</v>
+        <v>43555.606982999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>12.098780</v>
+        <v>12.09878</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1477.150000</v>
+        <v>1477.15</v>
       </c>
       <c r="CA17" s="1">
-        <v>-925.194000</v>
+        <v>-925.19399999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>43568.028790</v>
+        <v>43568.028789999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>12.102230</v>
+        <v>12.10223</v>
       </c>
       <c r="CE17" s="1">
-        <v>1838.420000</v>
+        <v>1838.42</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1444.700000</v>
+        <v>-1444.7</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>43394.490556</v>
+        <v>43394.490555999997</v>
       </c>
       <c r="B18" s="1">
-        <v>12.054025</v>
+        <v>12.054024999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>906.383000</v>
+        <v>906.38300000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-179.428000</v>
+        <v>-179.428</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>43404.893614</v>
+        <v>43404.893614000001</v>
       </c>
       <c r="G18" s="1">
         <v>12.056915</v>
       </c>
       <c r="H18" s="1">
-        <v>920.904000</v>
+        <v>920.904</v>
       </c>
       <c r="I18" s="1">
-        <v>-153.419000</v>
+        <v>-153.41900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>43415.392961</v>
+        <v>43415.392960999998</v>
       </c>
       <c r="L18" s="1">
-        <v>12.059831</v>
+        <v>12.059831000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>942.304000</v>
+        <v>942.30399999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-112.062000</v>
+        <v>-112.062</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>43425.949320</v>
+        <v>43425.94932</v>
       </c>
       <c r="Q18" s="1">
         <v>12.062764</v>
       </c>
       <c r="R18" s="1">
-        <v>949.245000</v>
+        <v>949.245</v>
       </c>
       <c r="S18" s="1">
-        <v>-98.327400</v>
+        <v>-98.327399999999997</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>43436.374197</v>
+        <v>43436.374196999997</v>
       </c>
       <c r="V18" s="1">
         <v>12.065659</v>
       </c>
       <c r="W18" s="1">
-        <v>956.382000</v>
+        <v>956.38199999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-85.517200</v>
+        <v>-85.517200000000003</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>43446.889384</v>
+        <v>43446.889384000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>12.068580</v>
+        <v>12.068580000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.531000</v>
+        <v>964.53099999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-75.817800</v>
+        <v>-75.817800000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>43457.457177</v>
+        <v>43457.457176999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.071516</v>
+        <v>12.071516000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.763000</v>
+        <v>969.76300000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.284400</v>
+        <v>-74.284400000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>43467.967867</v>
+        <v>43467.967866999999</v>
       </c>
       <c r="AK18" s="1">
         <v>12.074436</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.488000</v>
+        <v>977.48800000000006</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.539100</v>
+        <v>-79.539100000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>43478.362561</v>
+        <v>43478.362561000002</v>
       </c>
       <c r="AP18" s="1">
         <v>12.077323</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.815000</v>
+        <v>985.81500000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.360400</v>
+        <v>-91.360399999999998</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>43489.442190</v>
+        <v>43489.442190000002</v>
       </c>
       <c r="AU18" s="1">
         <v>12.080401</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.798000</v>
+        <v>995.798</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.197000</v>
+        <v>-109.197</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>43500.169664</v>
+        <v>43500.169664000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>12.083380</v>
+        <v>12.08338</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.991000</v>
+        <v>-124.991</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>43511.100962</v>
+        <v>43511.100961999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>12.086417</v>
+        <v>12.086417000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.550000</v>
+        <v>-197.55</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>43522.507491</v>
+        <v>43522.507490999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>12.089585</v>
       </c>
       <c r="BK18" s="1">
-        <v>1109.490000</v>
+        <v>1109.49</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.421000</v>
+        <v>-315.42099999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>43533.773589</v>
+        <v>43533.773588999997</v>
       </c>
       <c r="BO18" s="1">
         <v>12.092715</v>
       </c>
       <c r="BP18" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-501.671000</v>
+        <v>-501.67099999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>43545.176149</v>
+        <v>43545.176148999999</v>
       </c>
       <c r="BT18" s="1">
         <v>12.095882</v>
       </c>
       <c r="BU18" s="1">
-        <v>1339.810000</v>
+        <v>1339.81</v>
       </c>
       <c r="BV18" s="1">
-        <v>-706.382000</v>
+        <v>-706.38199999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>43556.029110</v>
+        <v>43556.029110000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>12.098897</v>
+        <v>12.098896999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1477.140000</v>
+        <v>1477.14</v>
       </c>
       <c r="CA18" s="1">
-        <v>-925.054000</v>
+        <v>-925.05399999999997</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>43568.576409</v>
+        <v>43568.576409000001</v>
       </c>
       <c r="CD18" s="1">
         <v>12.102382</v>
       </c>
       <c r="CE18" s="1">
-        <v>1836.950000</v>
+        <v>1836.95</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1445.140000</v>
+        <v>-1445.14</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>43394.851613</v>
+        <v>43394.851612999999</v>
       </c>
       <c r="B19" s="1">
-        <v>12.054125</v>
+        <v>12.054125000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>906.324000</v>
+        <v>906.32399999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-179.704000</v>
+        <v>-179.70400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>43405.262640</v>
+        <v>43405.262640000001</v>
       </c>
       <c r="G19" s="1">
         <v>12.057017</v>
       </c>
       <c r="H19" s="1">
-        <v>920.816000</v>
+        <v>920.81600000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-153.145000</v>
+        <v>-153.14500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>43415.737188</v>
+        <v>43415.737187999999</v>
       </c>
       <c r="L19" s="1">
         <v>12.059927</v>
       </c>
       <c r="M19" s="1">
-        <v>942.365000</v>
+        <v>942.36500000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-112.205000</v>
+        <v>-112.205</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>43426.298467</v>
+        <v>43426.298467000001</v>
       </c>
       <c r="Q19" s="1">
         <v>12.062861</v>
       </c>
       <c r="R19" s="1">
-        <v>949.254000</v>
+        <v>949.25400000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-98.343800</v>
+        <v>-98.343800000000002</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>43436.717430</v>
+        <v>43436.717429999997</v>
       </c>
       <c r="V19" s="1">
-        <v>12.065755</v>
+        <v>12.065754999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>956.438000</v>
+        <v>956.43799999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-85.641000</v>
+        <v>-85.641000000000005</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>43447.312470</v>
+        <v>43447.312469999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>12.068698</v>
+        <v>12.068697999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.540000</v>
+        <v>964.54</v>
       </c>
       <c r="AC19" s="1">
-        <v>-75.740900</v>
+        <v>-75.740899999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>43457.710635</v>
+        <v>43457.710635000003</v>
       </c>
       <c r="AF19" s="1">
         <v>12.071586</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.722000</v>
+        <v>969.72199999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.317200</v>
+        <v>-74.3172</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>43468.248635</v>
+        <v>43468.248635000004</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.074514</v>
+        <v>12.074514000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.486000</v>
+        <v>977.48599999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.527200</v>
+        <v>-79.527199999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>43478.721628</v>
+        <v>43478.721627999999</v>
       </c>
       <c r="AP19" s="1">
         <v>12.077423</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.808000</v>
+        <v>985.80799999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.376900</v>
+        <v>-91.376900000000006</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>43489.806258</v>
+        <v>43489.806257999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>12.080502</v>
+        <v>12.080501999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.794000</v>
+        <v>995.79399999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.199000</v>
+        <v>-109.199</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>43500.528768</v>
+        <v>43500.528767999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>12.083480</v>
+        <v>12.08348</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.003000</v>
+        <v>-125.003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>43511.827159</v>
       </c>
       <c r="BE19" s="1">
-        <v>12.086619</v>
+        <v>12.086619000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1042.830000</v>
+        <v>1042.83</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.536000</v>
+        <v>-197.536</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>43522.883462</v>
+        <v>43522.883461999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>12.089690</v>
+        <v>12.089689999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1109.520000</v>
+        <v>1109.52</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.449000</v>
+        <v>-315.44900000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>43534.192247</v>
+        <v>43534.192246999999</v>
       </c>
       <c r="BO19" s="1">
         <v>12.092831</v>
       </c>
       <c r="BP19" s="1">
-        <v>1217.880000</v>
+        <v>1217.8800000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-501.728000</v>
+        <v>-501.72800000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>43545.585135</v>
+        <v>43545.585135000001</v>
       </c>
       <c r="BT19" s="1">
         <v>12.095996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1339.690000</v>
+        <v>1339.69</v>
       </c>
       <c r="BV19" s="1">
-        <v>-706.485000</v>
+        <v>-706.48500000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>43556.762166</v>
       </c>
       <c r="BY19" s="1">
-        <v>12.099101</v>
+        <v>12.099100999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1477.090000</v>
+        <v>1477.09</v>
       </c>
       <c r="CA19" s="1">
-        <v>-925.256000</v>
+        <v>-925.25599999999997</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>43569.428005</v>
+        <v>43569.428005000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.102619</v>
+        <v>12.102619000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1838.140000</v>
+        <v>1838.14</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1444.350000</v>
+        <v>-1444.35</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>43395.193386</v>
+        <v>43395.193385999999</v>
       </c>
       <c r="B20" s="1">
-        <v>12.054220</v>
+        <v>12.054220000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>906.327000</v>
+        <v>906.327</v>
       </c>
       <c r="D20" s="1">
-        <v>-179.401000</v>
+        <v>-179.40100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>43405.605869</v>
+        <v>43405.605868999999</v>
       </c>
       <c r="G20" s="1">
-        <v>12.057113</v>
+        <v>12.057112999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>921.010000</v>
+        <v>921.01</v>
       </c>
       <c r="I20" s="1">
-        <v>-153.738000</v>
+        <v>-153.738</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>43416.084383</v>
+        <v>43416.084383000001</v>
       </c>
       <c r="L20" s="1">
-        <v>12.060023</v>
+        <v>12.060022999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>942.264000</v>
+        <v>942.26400000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-112.011000</v>
+        <v>-112.011</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>43426.720098</v>
+        <v>43426.720097999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>12.062978</v>
+        <v>12.062977999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>949.284000</v>
+        <v>949.28399999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-98.338500</v>
+        <v>-98.338499999999996</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>43437.147461</v>
       </c>
       <c r="V20" s="1">
-        <v>12.065874</v>
+        <v>12.065874000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>956.403000</v>
+        <v>956.40300000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-85.546000</v>
+        <v>-85.546000000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>43447.598661</v>
+        <v>43447.598661000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.068777</v>
+        <v>12.068777000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.555000</v>
+        <v>964.55499999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-75.763000</v>
+        <v>-75.763000000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>43458.054338</v>
+        <v>43458.054338000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>12.071682</v>
+        <v>12.071681999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.747000</v>
+        <v>969.74699999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.289400</v>
+        <v>-74.289400000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>43468.596298</v>
+        <v>43468.596297999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.074610</v>
+        <v>12.07461</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.473000</v>
+        <v>977.47299999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.527800</v>
+        <v>-79.527799999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>43479.082220</v>
+        <v>43479.082219999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>12.077523</v>
+        <v>12.077522999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.831000</v>
+        <v>985.83100000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.354800</v>
+        <v>-91.354799999999997</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>43490.536333</v>
+        <v>43490.536332999996</v>
       </c>
       <c r="AU20" s="1">
         <v>12.080705</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.761000</v>
+        <v>995.76099999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.198000</v>
+        <v>-109.19799999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>43501.242975</v>
+        <v>43501.242975000001</v>
       </c>
       <c r="AZ20" s="1">
         <v>12.083679</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.023000</v>
+        <v>-125.023</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>43512.206545</v>
+        <v>43512.206545000001</v>
       </c>
       <c r="BE20" s="1">
         <v>12.086724</v>
       </c>
       <c r="BF20" s="1">
-        <v>1042.810000</v>
+        <v>1042.81</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.536000</v>
+        <v>-197.536</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>43523.259395</v>
+        <v>43523.259395000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.089794</v>
+        <v>12.089793999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1109.470000</v>
+        <v>1109.47</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.432000</v>
+        <v>-315.43200000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>43534.590034</v>
+        <v>43534.590034000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>12.092942</v>
+        <v>12.092942000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-501.733000</v>
+        <v>-501.733</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>43546.336755</v>
+        <v>43546.336754999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>12.096205</v>
+        <v>12.096204999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1339.780000</v>
+        <v>1339.78</v>
       </c>
       <c r="BV20" s="1">
-        <v>-706.519000</v>
+        <v>-706.51900000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>43556.896085</v>
@@ -5332,497 +5748,497 @@
         <v>12.099138</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1477.150000</v>
+        <v>1477.15</v>
       </c>
       <c r="CA20" s="1">
-        <v>-925.206000</v>
+        <v>-925.20600000000002</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>43569.648726</v>
+        <v>43569.648725999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>12.102680</v>
+        <v>12.102679999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1838.310000</v>
+        <v>1838.31</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1444.530000</v>
+        <v>-1444.53</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>43395.536587</v>
+        <v>43395.536587000002</v>
       </c>
       <c r="B21" s="1">
         <v>12.054316</v>
       </c>
       <c r="C21" s="1">
-        <v>906.226000</v>
+        <v>906.226</v>
       </c>
       <c r="D21" s="1">
-        <v>-179.395000</v>
+        <v>-179.39500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>43406.170318</v>
+        <v>43406.170317999997</v>
       </c>
       <c r="G21" s="1">
-        <v>12.057270</v>
+        <v>12.057270000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>920.932000</v>
+        <v>920.93200000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-153.886000</v>
+        <v>-153.886</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>43416.515375</v>
+        <v>43416.515375000003</v>
       </c>
       <c r="L21" s="1">
         <v>12.060143</v>
       </c>
       <c r="M21" s="1">
-        <v>942.270000</v>
+        <v>942.27</v>
       </c>
       <c r="N21" s="1">
-        <v>-112.067000</v>
+        <v>-112.06699999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>43426.997857</v>
+        <v>43426.997857000002</v>
       </c>
       <c r="Q21" s="1">
         <v>12.063055</v>
       </c>
       <c r="R21" s="1">
-        <v>949.286000</v>
+        <v>949.28599999999994</v>
       </c>
       <c r="S21" s="1">
-        <v>-98.323600</v>
+        <v>-98.323599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>43437.431171</v>
+        <v>43437.431170999997</v>
       </c>
       <c r="V21" s="1">
         <v>12.065953</v>
       </c>
       <c r="W21" s="1">
-        <v>956.446000</v>
+        <v>956.44600000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-85.545500</v>
+        <v>-85.545500000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>43447.944902</v>
+        <v>43447.944902000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>12.068874</v>
+        <v>12.068873999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.532000</v>
+        <v>964.53200000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-75.798200</v>
+        <v>-75.798199999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>43458.398586</v>
+        <v>43458.398586000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.071777</v>
+        <v>12.071777000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.737000</v>
+        <v>969.73699999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.256200</v>
+        <v>-74.256200000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>43468.943995</v>
+        <v>43468.943995000001</v>
       </c>
       <c r="AK21" s="1">
         <v>12.074707</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.485000</v>
+        <v>977.48500000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.516900</v>
+        <v>-79.516900000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>43479.808363</v>
+        <v>43479.808362999996</v>
       </c>
       <c r="AP21" s="1">
-        <v>12.077725</v>
+        <v>12.077724999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.824000</v>
+        <v>985.82399999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.357500</v>
+        <v>-91.357500000000002</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>43490.896924</v>
+        <v>43490.896924000001</v>
       </c>
       <c r="AU21" s="1">
         <v>12.080805</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.794000</v>
+        <v>995.79399999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.183000</v>
+        <v>-109.18300000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>43501.600590</v>
+        <v>43501.600590000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>12.083778</v>
+        <v>12.083778000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.001000</v>
+        <v>-125.001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>43512.565649</v>
+        <v>43512.565648999996</v>
       </c>
       <c r="BE21" s="1">
         <v>12.086824</v>
       </c>
       <c r="BF21" s="1">
-        <v>1042.810000</v>
+        <v>1042.81</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.534000</v>
+        <v>-197.53399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>43523.958753</v>
+        <v>43523.958752999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>12.089989</v>
+        <v>12.089988999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1109.490000</v>
+        <v>1109.49</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.408000</v>
+        <v>-315.40800000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>43535.321105</v>
+        <v>43535.321105000003</v>
       </c>
       <c r="BO21" s="1">
         <v>12.093145</v>
       </c>
       <c r="BP21" s="1">
-        <v>1217.910000</v>
+        <v>1217.9100000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-501.702000</v>
+        <v>-501.702</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>43546.450371</v>
+        <v>43546.450370999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>12.096236</v>
+        <v>12.096235999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1339.680000</v>
+        <v>1339.68</v>
       </c>
       <c r="BV21" s="1">
-        <v>-706.655000</v>
+        <v>-706.65499999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>43557.323674</v>
+        <v>43557.323673999999</v>
       </c>
       <c r="BY21" s="1">
         <v>12.099257</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1477.200000</v>
+        <v>1477.2</v>
       </c>
       <c r="CA21" s="1">
-        <v>-925.179000</v>
+        <v>-925.17899999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>43570.169029</v>
+        <v>43570.169028999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.102825</v>
+        <v>12.102824999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1836.960000</v>
+        <v>1836.96</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1445.110000</v>
+        <v>-1445.11</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>43395.975583</v>
+        <v>43395.975582999999</v>
       </c>
       <c r="B22" s="1">
-        <v>12.054438</v>
+        <v>12.054437999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>906.314000</v>
+        <v>906.31399999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-179.517000</v>
+        <v>-179.517</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>43406.296798</v>
+        <v>43406.296798000003</v>
       </c>
       <c r="G22" s="1">
-        <v>12.057305</v>
+        <v>12.057304999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>921.253000</v>
+        <v>921.25300000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-153.595000</v>
+        <v>-153.595</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>43416.793171</v>
+        <v>43416.793170999998</v>
       </c>
       <c r="L22" s="1">
-        <v>12.060220</v>
+        <v>12.060219999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>942.347000</v>
+        <v>942.34699999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-112.115000</v>
+        <v>-112.11499999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>43427.345026</v>
+        <v>43427.345026000003</v>
       </c>
       <c r="Q22" s="1">
         <v>12.063151</v>
       </c>
       <c r="R22" s="1">
-        <v>949.285000</v>
+        <v>949.28499999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-98.324800</v>
+        <v>-98.324799999999996</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>43437.771464</v>
+        <v>43437.771463999998</v>
       </c>
       <c r="V22" s="1">
         <v>12.066048</v>
       </c>
       <c r="W22" s="1">
-        <v>956.421000</v>
+        <v>956.42100000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-85.619200</v>
+        <v>-85.619200000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>43448.294062</v>
+        <v>43448.294062000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>12.068971</v>
+        <v>12.068970999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.455000</v>
+        <v>964.45500000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-75.769100</v>
+        <v>-75.769099999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>43459.084518</v>
+        <v>43459.084518000003</v>
       </c>
       <c r="AF22" s="1">
         <v>12.071968</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.756000</v>
+        <v>969.75599999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.276000</v>
+        <v>-74.275999999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>43469.639417</v>
+        <v>43469.639416999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>12.074900</v>
+        <v>12.0749</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.468000</v>
+        <v>977.46799999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.536000</v>
+        <v>-79.536000000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>43480.160523</v>
+        <v>43480.160522999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>12.077822</v>
+        <v>12.077821999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.825000</v>
+        <v>985.82500000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.362600</v>
+        <v>-91.3626</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>43491.262987</v>
+        <v>43491.262987000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>12.080906</v>
+        <v>12.080906000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.792000</v>
+        <v>995.79200000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.197000</v>
+        <v>-109.197</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>43501.962670</v>
+        <v>43501.962670000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>12.083879</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.014000</v>
+        <v>-125.014</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>43513.242689</v>
+        <v>43513.242688999999</v>
       </c>
       <c r="BE22" s="1">
         <v>12.087012</v>
       </c>
       <c r="BF22" s="1">
-        <v>1042.810000</v>
+        <v>1042.81</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.558000</v>
+        <v>-197.55799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>43524.416560</v>
+        <v>43524.416559999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>12.090116</v>
       </c>
       <c r="BK22" s="1">
-        <v>1109.470000</v>
+        <v>1109.47</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.413000</v>
+        <v>-315.41300000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>43535.837937</v>
+        <v>43535.837936999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.093288</v>
+        <v>12.093287999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-501.710000</v>
+        <v>-501.71</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>43546.887314</v>
@@ -5831,996 +6247,996 @@
         <v>12.096358</v>
       </c>
       <c r="BU22" s="1">
-        <v>1339.760000</v>
+        <v>1339.76</v>
       </c>
       <c r="BV22" s="1">
-        <v>-706.774000</v>
+        <v>-706.774</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>43557.757638</v>
+        <v>43557.757638000003</v>
       </c>
       <c r="BY22" s="1">
         <v>12.099377</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1477.190000</v>
+        <v>1477.19</v>
       </c>
       <c r="CA22" s="1">
-        <v>-925.072000</v>
+        <v>-925.072</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>43570.686851</v>
+        <v>43570.686850999999</v>
       </c>
       <c r="CD22" s="1">
         <v>12.102969</v>
       </c>
       <c r="CE22" s="1">
-        <v>1837.190000</v>
+        <v>1837.19</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1444.640000</v>
+        <v>-1444.64</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>43396.238959</v>
+        <v>43396.238959000002</v>
       </c>
       <c r="B23" s="1">
         <v>12.054511</v>
       </c>
       <c r="C23" s="1">
-        <v>906.288000</v>
+        <v>906.28800000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-179.599000</v>
+        <v>-179.59899999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>43406.639532</v>
+        <v>43406.639532000001</v>
       </c>
       <c r="G23" s="1">
-        <v>12.057400</v>
+        <v>12.057399999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>921.135000</v>
+        <v>921.13499999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-153.495000</v>
+        <v>-153.495</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>43417.138382</v>
+        <v>43417.138381999997</v>
       </c>
       <c r="L23" s="1">
         <v>12.060316</v>
       </c>
       <c r="M23" s="1">
-        <v>942.274000</v>
+        <v>942.274</v>
       </c>
       <c r="N23" s="1">
-        <v>-112.182000</v>
+        <v>-112.182</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>43427.694242</v>
+        <v>43427.694241999998</v>
       </c>
       <c r="Q23" s="1">
         <v>12.063248</v>
       </c>
       <c r="R23" s="1">
-        <v>949.236000</v>
+        <v>949.23599999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-98.353800</v>
+        <v>-98.353800000000007</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>43438.452434</v>
+        <v>43438.452433999999</v>
       </c>
       <c r="V23" s="1">
-        <v>12.066237</v>
+        <v>12.066236999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>956.455000</v>
+        <v>956.45500000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-85.568400</v>
+        <v>-85.568399999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>43448.990933</v>
+        <v>43448.990933000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.069164</v>
+        <v>12.069164000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.564000</v>
+        <v>964.56399999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-75.738700</v>
+        <v>-75.738699999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>43459.428246</v>
+        <v>43459.428246000003</v>
       </c>
       <c r="AF23" s="1">
         <v>12.072063</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.773000</v>
+        <v>969.77300000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.269500</v>
+        <v>-74.269499999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>43469.989064</v>
+        <v>43469.989064000001</v>
       </c>
       <c r="AK23" s="1">
         <v>12.074997</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.463000</v>
+        <v>977.46299999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.557200</v>
+        <v>-79.557199999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>43480.523130</v>
+        <v>43480.523130000001</v>
       </c>
       <c r="AP23" s="1">
         <v>12.077923</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.824000</v>
+        <v>985.82399999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.350300</v>
+        <v>-91.350300000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>43491.938524</v>
+        <v>43491.938523999997</v>
       </c>
       <c r="AU23" s="1">
         <v>12.081094</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.779000</v>
+        <v>995.779</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.193000</v>
+        <v>-109.193</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>43502.633262</v>
+        <v>43502.633262000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>12.084065</v>
+        <v>12.084065000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.014000</v>
+        <v>-125.014</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>43513.682638</v>
+        <v>43513.682637999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>12.087134</v>
+        <v>12.087134000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1042.790000</v>
+        <v>1042.79</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.531000</v>
+        <v>-197.53100000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>43524.805458</v>
+        <v>43524.805458000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.090224</v>
+        <v>12.090223999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1109.520000</v>
+        <v>1109.52</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.463000</v>
+        <v>-315.46300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>43536.250113</v>
+        <v>43536.250113000002</v>
       </c>
       <c r="BO23" s="1">
         <v>12.093403</v>
       </c>
       <c r="BP23" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-501.705000</v>
+        <v>-501.70499999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>43547.297010</v>
+        <v>43547.297010000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>12.096471</v>
+        <v>12.096470999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1339.770000</v>
+        <v>1339.77</v>
       </c>
       <c r="BV23" s="1">
-        <v>-706.772000</v>
+        <v>-706.77200000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>43558.180228</v>
+        <v>43558.180227999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>12.099495</v>
+        <v>12.099494999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1477.160000</v>
+        <v>1477.16</v>
       </c>
       <c r="CA23" s="1">
-        <v>-925.173000</v>
+        <v>-925.173</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>43571.240388</v>
+        <v>43571.240387999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.103122</v>
+        <v>12.103122000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1838.050000</v>
+        <v>1838.05</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1444.340000</v>
+        <v>-1444.34</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>43396.580169</v>
+        <v>43396.580169000001</v>
       </c>
       <c r="B24" s="1">
         <v>12.054606</v>
       </c>
       <c r="C24" s="1">
-        <v>906.391000</v>
+        <v>906.39099999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>-179.505000</v>
+        <v>-179.505</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>43406.986733</v>
+        <v>43406.986732999998</v>
       </c>
       <c r="G24" s="1">
         <v>12.057496</v>
       </c>
       <c r="H24" s="1">
-        <v>921.016000</v>
+        <v>921.01599999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-153.887000</v>
+        <v>-153.887</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>43417.485090</v>
+        <v>43417.485090000002</v>
       </c>
       <c r="L24" s="1">
         <v>12.060413</v>
       </c>
       <c r="M24" s="1">
-        <v>942.311000</v>
+        <v>942.31100000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-112.042000</v>
+        <v>-112.042</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>43428.390628</v>
+        <v>43428.390628000001</v>
       </c>
       <c r="Q24" s="1">
         <v>12.063442</v>
       </c>
       <c r="R24" s="1">
-        <v>949.247000</v>
+        <v>949.24699999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-98.309000</v>
+        <v>-98.308999999999997</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>43438.802609</v>
+        <v>43438.802608999998</v>
       </c>
       <c r="V24" s="1">
-        <v>12.066334</v>
+        <v>12.066333999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>956.302000</v>
+        <v>956.30200000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-85.608900</v>
+        <v>-85.608900000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>43449.342136</v>
+        <v>43449.342135999999</v>
       </c>
       <c r="AA24" s="1">
         <v>12.069262</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.520000</v>
+        <v>964.52</v>
       </c>
       <c r="AC24" s="1">
-        <v>-75.850800</v>
+        <v>-75.850800000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>43459.772010</v>
+        <v>43459.772010000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>12.072159</v>
+        <v>12.072158999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.757000</v>
+        <v>969.75699999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.274500</v>
+        <v>-74.274500000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>43470.345192</v>
+        <v>43470.345192000001</v>
       </c>
       <c r="AK24" s="1">
         <v>12.075096</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.481000</v>
+        <v>977.48099999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.520100</v>
+        <v>-79.520099999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>43481.193727</v>
+        <v>43481.193726999998</v>
       </c>
       <c r="AP24" s="1">
         <v>12.078109</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.807000</v>
+        <v>985.80700000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.351600</v>
+        <v>-91.351600000000005</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>43492.390876</v>
+        <v>43492.390875999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>12.081220</v>
+        <v>12.08122</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.812000</v>
+        <v>995.81200000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.206000</v>
+        <v>-109.206</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>43503.036509</v>
+        <v>43503.036508999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.084177</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.011000</v>
+        <v>-125.011</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>43514.045710</v>
+        <v>43514.045709999999</v>
       </c>
       <c r="BE24" s="1">
         <v>12.087235</v>
       </c>
       <c r="BF24" s="1">
-        <v>1042.820000</v>
+        <v>1042.82</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.551000</v>
+        <v>-197.55099999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>43525.180931</v>
+        <v>43525.180931000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>12.090328</v>
       </c>
       <c r="BK24" s="1">
-        <v>1109.460000</v>
+        <v>1109.46</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.463000</v>
+        <v>-315.46300000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>43536.645920</v>
+        <v>43536.645920000003</v>
       </c>
       <c r="BO24" s="1">
         <v>12.093513</v>
       </c>
       <c r="BP24" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-501.724000</v>
+        <v>-501.72399999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>43547.732038</v>
+        <v>43547.732038000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>12.096592</v>
+        <v>12.096591999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1339.900000</v>
+        <v>1339.9</v>
       </c>
       <c r="BV24" s="1">
-        <v>-706.841000</v>
+        <v>-706.84100000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>43558.621672</v>
+        <v>43558.621672000001</v>
       </c>
       <c r="BY24" s="1">
         <v>12.099617</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1477.250000</v>
+        <v>1477.25</v>
       </c>
       <c r="CA24" s="1">
-        <v>-925.213000</v>
+        <v>-925.21299999999997</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>43571.766147</v>
+        <v>43571.766147000002</v>
       </c>
       <c r="CD24" s="1">
         <v>12.103268</v>
       </c>
       <c r="CE24" s="1">
-        <v>1836.980000</v>
+        <v>1836.98</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1445.250000</v>
+        <v>-1445.25</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>43396.922410</v>
+        <v>43396.922409999999</v>
       </c>
       <c r="B25" s="1">
         <v>12.054701</v>
       </c>
       <c r="C25" s="1">
-        <v>906.152000</v>
+        <v>906.15200000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-179.533000</v>
+        <v>-179.53299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>43407.671706</v>
+        <v>43407.671706000001</v>
       </c>
       <c r="G25" s="1">
         <v>12.057687</v>
       </c>
       <c r="H25" s="1">
-        <v>921.347000</v>
+        <v>921.34699999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-153.586000</v>
+        <v>-153.58600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>43418.177503</v>
+        <v>43418.177502999999</v>
       </c>
       <c r="L25" s="1">
-        <v>12.060605</v>
+        <v>12.060605000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>942.338000</v>
+        <v>942.33799999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.982000</v>
+        <v>-111.982</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>43428.741760</v>
+        <v>43428.741759999997</v>
       </c>
       <c r="Q25" s="1">
         <v>12.063539</v>
       </c>
       <c r="R25" s="1">
-        <v>949.244000</v>
+        <v>949.24400000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-98.288100</v>
+        <v>-98.2881</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>43439.142402</v>
+        <v>43439.142401999998</v>
       </c>
       <c r="V25" s="1">
         <v>12.066428</v>
       </c>
       <c r="W25" s="1">
-        <v>956.388000</v>
+        <v>956.38800000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-85.557200</v>
+        <v>-85.557199999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>43449.689796</v>
+        <v>43449.689795999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>12.069358</v>
+        <v>12.069357999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.498000</v>
+        <v>964.49800000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-75.792300</v>
+        <v>-75.792299999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>43460.429174</v>
+        <v>43460.429173999997</v>
       </c>
       <c r="AF25" s="1">
         <v>12.072341</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.727000</v>
+        <v>969.72699999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.295600</v>
+        <v>-74.295599999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>43471.002888</v>
+        <v>43471.002888000003</v>
       </c>
       <c r="AK25" s="1">
         <v>12.075279</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.464000</v>
+        <v>977.46400000000006</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.533400</v>
+        <v>-79.5334</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>43481.640871</v>
+        <v>43481.640871000003</v>
       </c>
       <c r="AP25" s="1">
         <v>12.078234</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.815000</v>
+        <v>985.81500000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.355200</v>
+        <v>-91.355199999999996</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>43492.756428</v>
+        <v>43492.756428000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>12.081321</v>
+        <v>12.081321000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.780000</v>
+        <v>995.78</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.198000</v>
+        <v>-109.19799999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>43503.426860</v>
+        <v>43503.42686</v>
       </c>
       <c r="AZ25" s="1">
-        <v>12.084285</v>
+        <v>12.084284999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.005000</v>
+        <v>-125.005</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>43514.406303</v>
+        <v>43514.406303000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>12.087335</v>
+        <v>12.087334999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1042.830000</v>
+        <v>1042.83</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.558000</v>
+        <v>-197.55799999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>43525.608446</v>
+        <v>43525.608445999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>12.090447</v>
+        <v>12.090446999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1109.450000</v>
+        <v>1109.45</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.468000</v>
+        <v>-315.46800000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>43537.459887</v>
+        <v>43537.459886999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>12.093739</v>
+        <v>12.093738999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-501.720000</v>
+        <v>-501.72</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>43548.157568</v>
+        <v>43548.157568000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>12.096710</v>
+        <v>12.09671</v>
       </c>
       <c r="BU25" s="1">
-        <v>1339.950000</v>
+        <v>1339.95</v>
       </c>
       <c r="BV25" s="1">
-        <v>-706.923000</v>
+        <v>-706.923</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>43559.053186</v>
+        <v>43559.053185999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>12.099737</v>
+        <v>12.099736999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1477.160000</v>
+        <v>1477.16</v>
       </c>
       <c r="CA25" s="1">
-        <v>-925.080000</v>
+        <v>-925.08</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>43572.283970</v>
+        <v>43572.283969999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>12.103412</v>
+        <v>12.103412000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1838.430000</v>
+        <v>1838.43</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1445.310000</v>
+        <v>-1445.31</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>43397.603416</v>
+        <v>43397.603415999998</v>
       </c>
       <c r="B26" s="1">
-        <v>12.054890</v>
+        <v>12.05489</v>
       </c>
       <c r="C26" s="1">
-        <v>906.435000</v>
+        <v>906.43499999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-179.643000</v>
+        <v>-179.643</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>43408.019898</v>
+        <v>43408.019897999999</v>
       </c>
       <c r="G26" s="1">
-        <v>12.057783</v>
+        <v>12.057783000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>921.405000</v>
+        <v>921.40499999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-153.134000</v>
+        <v>-153.13399999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>43418.525200</v>
+        <v>43418.525199999996</v>
       </c>
       <c r="L26" s="1">
         <v>12.060701</v>
       </c>
       <c r="M26" s="1">
-        <v>942.381000</v>
+        <v>942.38099999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-112.097000</v>
+        <v>-112.09699999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>43429.085982</v>
+        <v>43429.085981999997</v>
       </c>
       <c r="Q26" s="1">
         <v>12.063635</v>
       </c>
       <c r="R26" s="1">
-        <v>949.300000</v>
+        <v>949.3</v>
       </c>
       <c r="S26" s="1">
-        <v>-98.323800</v>
+        <v>-98.323800000000006</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>43439.797120</v>
+        <v>43439.797120000003</v>
       </c>
       <c r="V26" s="1">
-        <v>12.066610</v>
+        <v>12.066610000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>956.442000</v>
+        <v>956.44200000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-85.588000</v>
+        <v>-85.587999999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>43450.347490</v>
+        <v>43450.34749</v>
       </c>
       <c r="AA26" s="1">
-        <v>12.069541</v>
+        <v>12.069540999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.475000</v>
+        <v>964.47500000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-75.798500</v>
+        <v>-75.798500000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>43460.804148</v>
+        <v>43460.804148000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.072446</v>
+        <v>12.072445999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.754000</v>
+        <v>969.75400000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.241600</v>
+        <v>-74.241600000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>43471.383816</v>
+        <v>43471.383816000001</v>
       </c>
       <c r="AK26" s="1">
         <v>12.075384</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.469000</v>
+        <v>977.46900000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.520300</v>
+        <v>-79.520300000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>43481.993738</v>
+        <v>43481.993737999997</v>
       </c>
       <c r="AP26" s="1">
         <v>12.078332</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.789000</v>
+        <v>985.78899999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.363300</v>
+        <v>-91.363299999999995</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>43493.122015</v>
+        <v>43493.122015000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>12.081423</v>
+        <v>12.081422999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.804000</v>
+        <v>995.80399999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.206000</v>
+        <v>-109.206</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>43503.785963</v>
+        <v>43503.785963000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>12.084385</v>
+        <v>12.084384999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.991000</v>
+        <v>-124.991</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>43514.835342</v>
+        <v>43514.835341999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>12.087454</v>
+        <v>12.087453999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1042.810000</v>
+        <v>1042.81</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.529000</v>
+        <v>-197.529</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>43525.931375</v>
@@ -6829,58 +7245,58 @@
         <v>12.090536</v>
       </c>
       <c r="BK26" s="1">
-        <v>1109.480000</v>
+        <v>1109.48</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.380000</v>
+        <v>-315.38</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>43537.857183</v>
       </c>
       <c r="BO26" s="1">
-        <v>12.093849</v>
+        <v>12.093849000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1217.830000</v>
+        <v>1217.83</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-501.691000</v>
+        <v>-501.69099999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>43548.568256</v>
+        <v>43548.568255999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.096825</v>
+        <v>12.096825000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1340.060000</v>
+        <v>1340.06</v>
       </c>
       <c r="BV26" s="1">
-        <v>-706.932000</v>
+        <v>-706.93200000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>43559.477794</v>
+        <v>43559.477793999999</v>
       </c>
       <c r="BY26" s="1">
         <v>12.099855</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1476.960000</v>
+        <v>1476.96</v>
       </c>
       <c r="CA26" s="1">
-        <v>-925.261000</v>
+        <v>-925.26099999999997</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>43572.824644</v>
@@ -6889,15 +7305,16 @@
         <v>12.103562</v>
       </c>
       <c r="CE26" s="1">
-        <v>1837.320000</v>
+        <v>1837.32</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1444.330000</v>
+        <v>-1444.33</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>